--- a/Data dictionary.xlsx
+++ b/Data dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/vl22683_bristol_ac_uk/Documents/Documents/PhD Papers/Paper 3a - Ukraine Sex Work HIV/code/SW code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07E5DD5A-0EC2-4F28-AC1A-E965BACDB5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="450" documentId="8_{07E5DD5A-0EC2-4F28-AC1A-E965BACDB5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{419C418D-F755-41FF-9507-1C331071D250}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A93D0E0D-36F4-443B-B19A-182A746FE88E}"/>
   </bookViews>
@@ -35,9 +35,494 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="160">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Levels</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>marital_status</t>
+  </si>
+  <si>
+    <t>age_first_sex</t>
+  </si>
+  <si>
+    <t>age_first_sw</t>
+  </si>
+  <si>
+    <t>client_condom_lastsex</t>
+  </si>
+  <si>
+    <t>perm_partner_condom_lastsex</t>
+  </si>
+  <si>
+    <t>cas_partner_condom_lastsex</t>
+  </si>
+  <si>
+    <t>hospitalised_12m_bin</t>
+  </si>
+  <si>
+    <t>alcohol_30d_bin</t>
+  </si>
+  <si>
+    <t>partners_sw_7d</t>
+  </si>
+  <si>
+    <t>partners_nonsw_7d</t>
+  </si>
+  <si>
+    <t>partners_total_7d</t>
+  </si>
+  <si>
+    <t>alcohol_30d_num</t>
+  </si>
+  <si>
+    <t>drugs_30d_bin</t>
+  </si>
+  <si>
+    <t>drugs_30d_num</t>
+  </si>
+  <si>
+    <t>idu_30d_bin</t>
+  </si>
+  <si>
+    <t>idu_30d_num</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>used_syringe_last</t>
+  </si>
+  <si>
+    <t>used_syringe_30d_num</t>
+  </si>
+  <si>
+    <t>sti_test_12m</t>
+  </si>
+  <si>
+    <t>ngo_access_lifetime</t>
+  </si>
+  <si>
+    <t>ngo_access_12m</t>
+  </si>
+  <si>
+    <t>ngo_access_30d</t>
+  </si>
+  <si>
+    <t>hiv_test_knowledge</t>
+  </si>
+  <si>
+    <t>hiv_test_access</t>
+  </si>
+  <si>
+    <t>hiv_tested_12m</t>
+  </si>
+  <si>
+    <t>hiv_tested_lifetime</t>
+  </si>
+  <si>
+    <t>hiv_tested_result</t>
+  </si>
+  <si>
+    <t>blood_screen_bin</t>
+  </si>
+  <si>
+    <t>hiv_test_rslt</t>
+  </si>
+  <si>
+    <t>hiv_status_selfreport</t>
+  </si>
+  <si>
+    <t>syphilis_test_rslt</t>
+  </si>
+  <si>
+    <t>Age (years)</t>
+  </si>
+  <si>
+    <t>Age first sexual experience</t>
+  </si>
+  <si>
+    <t>Age first commercial sex</t>
+  </si>
+  <si>
+    <t>Marital status</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>City of recruitment</t>
+  </si>
+  <si>
+    <t>city_travel_12m</t>
+  </si>
+  <si>
+    <t>Left city for more than one month to provide sexual services past 12 months</t>
+  </si>
+  <si>
+    <t>Number of clients past week</t>
+  </si>
+  <si>
+    <t>Number of non-client sexual partners past week</t>
+  </si>
+  <si>
+    <t>Total number of sexual partners past week</t>
+  </si>
+  <si>
+    <t>partners_sw_24h</t>
+  </si>
+  <si>
+    <t>Number of clients past working day (24 hours)</t>
+  </si>
+  <si>
+    <t>Used a condom last sexual contact with client</t>
+  </si>
+  <si>
+    <t>client_condom_freq_30d</t>
+  </si>
+  <si>
+    <t>Frequency of condom use with clients in the last month</t>
+  </si>
+  <si>
+    <t>Used a condom last sexual contact with permanent partner</t>
+  </si>
+  <si>
+    <t>Used a condom last sexual contact with casual partner</t>
+  </si>
+  <si>
+    <t>condom_access_12m</t>
+  </si>
+  <si>
+    <t>Received free condoms from health service past 12 months</t>
+  </si>
+  <si>
+    <t>Found clients on street</t>
+  </si>
+  <si>
+    <t>Found clients on highway</t>
+  </si>
+  <si>
+    <t>Found clients at hotel</t>
+  </si>
+  <si>
+    <t>Found clients at sauna</t>
+  </si>
+  <si>
+    <t>Found clients at stations</t>
+  </si>
+  <si>
+    <t>Found clients on internet</t>
+  </si>
+  <si>
+    <t>Found clients at club</t>
+  </si>
+  <si>
+    <t>Other method of finding clients</t>
+  </si>
+  <si>
+    <t>Found clients as escort</t>
+  </si>
+  <si>
+    <t>medical_help_12m_num</t>
+  </si>
+  <si>
+    <t>Number of times sought medical help past 12 months</t>
+  </si>
+  <si>
+    <t>medical_consult_12m</t>
+  </si>
+  <si>
+    <t>Consultation at polyclinic, health post, hospital outpatient clinic past 12 months</t>
+  </si>
+  <si>
+    <t>Visited AIDS center past 12 months</t>
+  </si>
+  <si>
+    <t>Number of times visited AIDS center past 12 months</t>
+  </si>
+  <si>
+    <t>Hospitalised past 12 months</t>
+  </si>
+  <si>
+    <t>Number of times drank alcohol past 30 days</t>
+  </si>
+  <si>
+    <t>Drank alcohol past 30 days</t>
+  </si>
+  <si>
+    <t>Used drugs past 30 days</t>
+  </si>
+  <si>
+    <t>Number of times used drugs past 30 days</t>
+  </si>
+  <si>
+    <t>Injected drugs past 30 days</t>
+  </si>
+  <si>
+    <t>Number of times injected drugs past 30 days</t>
+  </si>
+  <si>
+    <t>Used sterile syringe last time injected</t>
+  </si>
+  <si>
+    <t>How often used sterile syringes past 30 days</t>
+  </si>
+  <si>
+    <t>Ever accessed NGO for commercial SW</t>
+  </si>
+  <si>
+    <t>Accessed NGO for commercial SW past 12 months</t>
+  </si>
+  <si>
+    <t>Accessed NGO for commercial SW past 30 days</t>
+  </si>
+  <si>
+    <t>Knows where to go for HIV testing</t>
+  </si>
+  <si>
+    <t>Ability to undergo HIV testing</t>
+  </si>
+  <si>
+    <t>Ever HIV tested</t>
+  </si>
+  <si>
+    <t>HIV tested past 12 months</t>
+  </si>
+  <si>
+    <t>Received result of HIV test</t>
+  </si>
+  <si>
+    <t>Self-reported HIV status</t>
+  </si>
+  <si>
+    <t>sw_num_network_90d</t>
+  </si>
+  <si>
+    <t>Received BBV and STI screening</t>
+  </si>
+  <si>
+    <t>HIV test result</t>
+  </si>
+  <si>
+    <t>Syphilis test result</t>
+  </si>
+  <si>
+    <t>Engaged in sex work past 6 months</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>Highest level of education</t>
+  </si>
+  <si>
+    <t>residence</t>
+  </si>
+  <si>
+    <t>Place of residence</t>
+  </si>
+  <si>
+    <t>sw_6m</t>
+  </si>
+  <si>
+    <t>sw_freq_6m</t>
+  </si>
+  <si>
+    <t>sw_freq_7d</t>
+  </si>
+  <si>
+    <t>How often engaged in sex work past 6 months</t>
+  </si>
+  <si>
+    <t>How often engaged in sex work past 7 days</t>
+  </si>
+  <si>
+    <t>Tested for STIs past 12 months</t>
+  </si>
+  <si>
+    <t>tb_12m_selfreport</t>
+  </si>
+  <si>
+    <t>Tuberculosis past 12 months</t>
+  </si>
+  <si>
+    <t>tb_treat_12m_selfreport</t>
+  </si>
+  <si>
+    <t>Received tuberculosis treatment</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>gono_12m_selfreport</t>
+  </si>
+  <si>
+    <t>Gonorrhea past 12 months</t>
+  </si>
+  <si>
+    <t>gono_treat_12m_selfreport</t>
+  </si>
+  <si>
+    <t>herpes_12m_selfreport</t>
+  </si>
+  <si>
+    <t>herpes_treat_12m_selfreport</t>
+  </si>
+  <si>
+    <t>hbv_12m_selfreport</t>
+  </si>
+  <si>
+    <t>hbv_treat_12m_selfreport</t>
+  </si>
+  <si>
+    <t>hcv_12m_selfreport</t>
+  </si>
+  <si>
+    <t>hcv_treat_12m_selfreport</t>
+  </si>
+  <si>
+    <t>syph_12m_selfreport</t>
+  </si>
+  <si>
+    <t>syph_treat_12m_selfreport</t>
+  </si>
+  <si>
+    <t>Received gonorrhea treatment</t>
+  </si>
+  <si>
+    <t>Genital herpes past 12 months</t>
+  </si>
+  <si>
+    <t>Received genital herpes treatment</t>
+  </si>
+  <si>
+    <t>Hepatitis B past 12 months</t>
+  </si>
+  <si>
+    <t>Received HBV treatment</t>
+  </si>
+  <si>
+    <t>Hepatitis C past 12 months</t>
+  </si>
+  <si>
+    <t>Received HCV treatment</t>
+  </si>
+  <si>
+    <t>Syphilis past 12 months</t>
+  </si>
+  <si>
+    <t>Received syphilis treatment</t>
+  </si>
+  <si>
+    <t>Registered with AIDS center</t>
+  </si>
+  <si>
+    <t>aids_center_12m_bin</t>
+  </si>
+  <si>
+    <t>aids_center_12m_num</t>
+  </si>
+  <si>
+    <t>aids_center_bin</t>
+  </si>
+  <si>
+    <t>Other SW in network past 90 days</t>
+  </si>
+  <si>
+    <t>sw_num_network_current</t>
+  </si>
+  <si>
+    <t>Other SW in network</t>
+  </si>
+  <si>
+    <t>sw_num_network_180d</t>
+  </si>
+  <si>
+    <t>Other SW in network past 180 days</t>
+  </si>
+  <si>
+    <t>typology_primary</t>
+  </si>
+  <si>
+    <t>typology_street_6m</t>
+  </si>
+  <si>
+    <t>typology_highway_6m</t>
+  </si>
+  <si>
+    <t>typology_hotel_6m</t>
+  </si>
+  <si>
+    <t>typology_sauna_6m</t>
+  </si>
+  <si>
+    <t>typology_stations_6m</t>
+  </si>
+  <si>
+    <t>typology_internet_6m</t>
+  </si>
+  <si>
+    <t>typology_club_6m</t>
+  </si>
+  <si>
+    <t>typology_escort_6m</t>
+  </si>
+  <si>
+    <t>typology_other_6m</t>
+  </si>
+  <si>
+    <t>Primary method for finding clients</t>
+  </si>
+  <si>
+    <t>oat_current</t>
+  </si>
+  <si>
+    <t>Participating in substitution program</t>
+  </si>
+  <si>
+    <t>primary_drug_30m</t>
+  </si>
+  <si>
+    <t>Primary drug used past 30 days</t>
+  </si>
+  <si>
+    <t>Participating in ART program</t>
+  </si>
+  <si>
+    <t>art_current</t>
+  </si>
+  <si>
+    <t>HBV test result</t>
+  </si>
+  <si>
+    <t>HCV test result</t>
+  </si>
+  <si>
+    <t>hbv_test_rslt</t>
+  </si>
+  <si>
+    <t>hcv_test_rslt</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +530,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +561,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +935,1391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22FADAB-8CEB-4C64-B225-6490F054341E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2008</v>
+      </c>
+      <c r="E1" s="5">
+        <v>2009</v>
+      </c>
+      <c r="F1" s="5">
+        <v>2011</v>
+      </c>
+      <c r="G1" s="5">
+        <v>2013</v>
+      </c>
+      <c r="H1" s="5">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="5">
+        <v>2017</v>
+      </c>
+      <c r="J1" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" t="s">
+        <v>109</v>
+      </c>
+      <c r="F70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E77" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E78" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>